--- a/JS-SPA-Self-Evaluation-Protocol-Plami.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Plami.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6"/>
     </row>

--- a/JS-SPA-Self-Evaluation-Protocol-Plami.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Plami.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>GitHub (up to 100)    -  AngularJS-Practical-Project</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -773,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -955,9 +958,7 @@
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5">
-        <v>5</v>
-      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
@@ -968,12 +969,14 @@
         <v>18</v>
       </c>
       <c r="C26" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -990,12 +993,14 @@
         <v>20</v>
       </c>
       <c r="C28" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -1229,7 +1234,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Plami.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Plami.xlsx
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6"/>
     </row>
